--- a/data/trans_orig/KIDM_C_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_2_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D0D418-9E42-43DC-B4BB-2795A6ABF75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8042308B-7691-4CC7-9FD0-C644A51F9AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F0E6A3E-45EC-49C2-9E0C-F87EB0417C74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAB92A32-0BCD-411E-8755-48FAB36CF370}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>Menores según si tienen mucho o muchísimo cansancio para disfrutar de las cosas que le gustan (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>27,84%</t>
+    <t>21,92%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>33,67%</t>
+    <t>33,86%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>95,13%</t>
   </si>
   <si>
-    <t>72,16%</t>
+    <t>78,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>89,91%</t>
   </si>
   <si>
-    <t>66,33%</t>
+    <t>66,14%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +131,55 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,103 +188,97 @@
     <t>4,51%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>6,98%</t>
+    <t>8,21%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>93,02%</t>
+    <t>91,79%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>97,56%</t>
   </si>
   <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -699,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01013E13-27CF-43C7-A4C0-A426A7ED17A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCBB521-B116-432C-BCE6-B9210E7425BC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1324,7 +1318,7 @@
         <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,13 +1333,13 @@
         <v>260665</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -1354,13 +1348,13 @@
         <v>197346</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>561</v>
@@ -1369,13 +1363,13 @@
         <v>458011</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,7 +1425,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_2_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_2_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8042308B-7691-4CC7-9FD0-C644A51F9AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75DA93B9-E4EA-413E-87E8-6FE3BEDA16EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAB92A32-0BCD-411E-8755-48FAB36CF370}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1E117599-FED4-4CCD-B16D-B5C023D60E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si tienen mucho o muchísimo cansancio para disfrutar de las cosas que le gustan (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,55 +71,55 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>11,04%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,157 +128,157 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -693,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCBB521-B116-432C-BCE6-B9210E7425BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534B9749-5282-458F-AB98-037C6F8933C5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -811,10 +811,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>824</v>
+        <v>1369</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -826,10 +826,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1404</v>
+        <v>863</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -844,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -862,10 +862,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>16094</v>
+        <v>11038</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -877,10 +877,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>12506</v>
+        <v>15891</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -895,7 +895,7 @@
         <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>28599</v>
+        <v>26930</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -913,25 +913,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
         <v>21</v>
       </c>
-      <c r="D6" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7">
-        <v>18</v>
-      </c>
       <c r="I6" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -946,7 +946,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -966,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>3294</v>
+        <v>3190</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -981,10 +981,10 @@
         <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>3200</v>
+        <v>3305</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -999,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>6494</v>
+        <v>6496</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1017,10 +1017,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D8" s="7">
-        <v>193809</v>
+        <v>156123</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1032,10 +1032,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="I8" s="7">
-        <v>144888</v>
+        <v>199395</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1050,7 +1050,7 @@
         <v>403</v>
       </c>
       <c r="N8" s="7">
-        <v>338697</v>
+        <v>355517</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1068,25 +1068,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>195</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159313</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
         <v>217</v>
       </c>
-      <c r="D9" s="7">
-        <v>197103</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7">
-        <v>195</v>
-      </c>
       <c r="I9" s="7">
-        <v>148088</v>
+        <v>202700</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -1101,7 +1101,7 @@
         <v>412</v>
       </c>
       <c r="N9" s="7">
-        <v>345191</v>
+        <v>362013</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -1121,31 +1121,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>2397</v>
+        <v>590</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2404</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>597</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>53</v>
@@ -1154,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>54</v>
@@ -1172,10 +1172,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>50763</v>
+        <v>38162</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>57</v>
@@ -1184,28 +1184,28 @@
         <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7">
+        <v>66</v>
+      </c>
+      <c r="I11" s="7">
+        <v>50289</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7">
-        <v>56</v>
-      </c>
-      <c r="I11" s="7">
-        <v>39951</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
       </c>
       <c r="N11" s="7">
-        <v>90715</v>
+        <v>88451</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>62</v>
@@ -1223,25 +1223,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>69</v>
       </c>
-      <c r="D12" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="7">
-        <v>57</v>
-      </c>
       <c r="I12" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -1256,7 +1256,7 @@
         <v>126</v>
       </c>
       <c r="N12" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>6515</v>
+        <v>5149</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>65</v>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>5200</v>
+        <v>6572</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>68</v>
@@ -1303,22 +1303,22 @@
         <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>11715</v>
+        <v>11722</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1327,10 +1327,10 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="D14" s="7">
-        <v>260665</v>
+        <v>205323</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>73</v>
@@ -1342,31 +1342,31 @@
         <v>75</v>
       </c>
       <c r="H14" s="7">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="I14" s="7">
-        <v>197346</v>
+        <v>265575</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>561</v>
       </c>
       <c r="N14" s="7">
-        <v>458011</v>
+        <v>470897</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>80</v>
@@ -1378,25 +1378,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>270</v>
+      </c>
+      <c r="D15" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
         <v>307</v>
       </c>
-      <c r="D15" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7">
-        <v>270</v>
-      </c>
       <c r="I15" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -1411,7 +1411,7 @@
         <v>577</v>
       </c>
       <c r="N15" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
